--- a/biology/Botanique/Petite-Centaurée_délicate/Petite-Centaurée_délicate.xlsx
+++ b/biology/Botanique/Petite-Centaurée_délicate/Petite-Centaurée_délicate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Petite-Centaur%C3%A9e_d%C3%A9licate</t>
+          <t>Petite-Centaurée_délicate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Petite centaurée délicate ou Petite centaurée élégante (Centaurium pulchellum) est une espèce de plantes à fleurs de la famille des Gentianaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Petite-Centaur%C3%A9e_d%C3%A9licate</t>
+          <t>Petite-Centaurée_délicate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurium pulchellum (Sw.) Druce ne doit pas être confondue avec Centaurium pulchellum  (Batt.) Maire, nom illégitime synonyme de Centaurium candelabrum H. Lindb.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Petite-Centaur%C3%A9e_d%C3%A9licate</t>
+          <t>Petite-Centaurée_délicate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante à fleurs roses.
-La floraison a lieu de juin à septembre[1].
+La floraison a lieu de juin à septembre.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Petite-Centaur%C3%A9e_d%C3%A9licate</t>
+          <t>Petite-Centaurée_délicate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français.
 En France, l'espèce peut localement se raréfier : elle a disparu (RE) en Basse-Normandie ; elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, en Corse ; en danger (EN) en Limousin et Auvergne.
 Liste des espèces végétales protégées en Basse-Normandie
 En Belgique, l'espèce est protégée légalement.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Petite-Centaur%C3%A9e_d%C3%A9licate</t>
+          <t>Petite-Centaurée_délicate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Europe.
 Voir aussi
